--- a/input/EnergyPlus/1.1.0.020/Std140_CE_b_Output.xlsx
+++ b/input/EnergyPlus/1.1.0.020/Std140_CE_b_Output.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\EnergyPlus\1.1.0.020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE35A77-249C-4125-9B03-73E50A17D903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4E021-162F-486F-AED9-2C3540D2657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24945" yWindow="2670" windowWidth="30675" windowHeight="17970" xr2:uid="{4123B39A-7435-41A2-B95B-E63991D27550}"/>
+    <workbookView xWindow="3660" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{4123B39A-7435-41A2-B95B-E63991D27550}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
   </definedNames>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="197">
   <si>
     <t>E300OUT2.XLS, Mar 20, 2002</t>
   </si>
@@ -248,12 +245,6 @@
     <t xml:space="preserve">   A n n u a l   H o u r l y   I n t e g r a t e d   M a x i m a   C o n s u m p t i o n s   a n d   L o a d s</t>
   </si>
   <si>
-    <t xml:space="preserve">         E300 Only, Maxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E 3 0 0   O n l y</t>
-  </si>
-  <si>
     <t>Zone</t>
   </si>
   <si>
@@ -389,18 +380,9 @@
     <t>E500</t>
   </si>
   <si>
-    <t xml:space="preserve">E500 </t>
-  </si>
-  <si>
-    <t>E500 May-Sep</t>
-  </si>
-  <si>
     <t>E510</t>
   </si>
   <si>
-    <t>E510 May-Sep</t>
-  </si>
-  <si>
     <t>E520</t>
   </si>
   <si>
@@ -417,9 +399,6 @@
   </si>
   <si>
     <t>E545</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> J u n e   2 8   H o u r l y   O u t p u t   -   C a s e   E 3 0 0</t>
   </si>
   <si>
     <t xml:space="preserve">             A n n u a l   H o u r l y   I n t e g r a t e d   M a x i m a   a n d   M i n i m a   -   C O P 2   a n d   Z o n e</t>
@@ -560,9 +539,6 @@
     <t>24</t>
   </si>
   <si>
-    <t xml:space="preserve">      C a s e   E 5 0 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Evaporator Coil Load</t>
   </si>
   <si>
@@ -578,10 +554,91 @@
     <t>June 25</t>
   </si>
   <si>
-    <t xml:space="preserve">      C a s e   E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
-  </si>
-  <si>
     <t>Note 1 - Condenser fan power included with compressor power; cannot breakout</t>
+  </si>
+  <si>
+    <t>CE300</t>
+  </si>
+  <si>
+    <t>CE310</t>
+  </si>
+  <si>
+    <t>CE320</t>
+  </si>
+  <si>
+    <t>CE330</t>
+  </si>
+  <si>
+    <t>CE340</t>
+  </si>
+  <si>
+    <t>CE350</t>
+  </si>
+  <si>
+    <t>CE360</t>
+  </si>
+  <si>
+    <t>CE400</t>
+  </si>
+  <si>
+    <t>CE410</t>
+  </si>
+  <si>
+    <t>CE420</t>
+  </si>
+  <si>
+    <t>CE430</t>
+  </si>
+  <si>
+    <t>CE440</t>
+  </si>
+  <si>
+    <t>CE500</t>
+  </si>
+  <si>
+    <t>CE500 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE510 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE520</t>
+  </si>
+  <si>
+    <t>CE522</t>
+  </si>
+  <si>
+    <t>CE525</t>
+  </si>
+  <si>
+    <t>CE530</t>
+  </si>
+  <si>
+    <t>CE540</t>
+  </si>
+  <si>
+    <t>CE545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE500 </t>
+  </si>
+  <si>
+    <t>CE510</t>
+  </si>
+  <si>
+    <t>C E 3 0 0   O n l y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CE300 Only, Maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J u n e   2 8   H o u r l y   O u t p u t   -   C a s e   C E 3 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 0 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
   </si>
 </sst>
 </file>
@@ -1019,15 +1076,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1048,6 +1096,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,116 +1120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Read Me"/>
-      <sheetName val="Adding Results"/>
-      <sheetName val="YourData"/>
-      <sheetName val="Title Page"/>
-      <sheetName val="Program List"/>
-      <sheetName val="Tables List"/>
-      <sheetName val="Figures List"/>
-      <sheetName val="Table-Q"/>
-      <sheetName val="Table-R"/>
-      <sheetName val="Table-S"/>
-      <sheetName val="Table-T"/>
-      <sheetName val="Fig B16.5.2-1 Qtot"/>
-      <sheetName val="Fig B16.5.2-2 dQtot"/>
-      <sheetName val="Fig B16.5.2-3 Ptot"/>
-      <sheetName val="Fig B16.5.2-4 dPtot"/>
-      <sheetName val="Fig B16.5.2-5 Qcomp"/>
-      <sheetName val="Fig B16.5.2-6 dQcomp"/>
-      <sheetName val="Fig B16.5.2-7 Qidfan"/>
-      <sheetName val="Fig B16.5.2-8 dQidfan"/>
-      <sheetName val="Fig B16.5.2-9 Qodfan"/>
-      <sheetName val="Fig B16.5.2-10 dQodfan"/>
-      <sheetName val="Fig B16.5.2-11 QCtot"/>
-      <sheetName val="Fig B16.5.2-12 PCtot"/>
-      <sheetName val="Fig B16.5.2-13 dPCtot"/>
-      <sheetName val="Fig B16.5.2-14 QCSens"/>
-      <sheetName val="Fig B16.5.2-15 dQCsens"/>
-      <sheetName val="Fig B16.5.2-16 PCSens"/>
-      <sheetName val="Fig B16.5.2-17 QClat"/>
-      <sheetName val="Fig B16.5.2-18 dQClat"/>
-      <sheetName val="Fig B16.5.2-19 PClat"/>
-      <sheetName val="Fig B16.5.2-20 dPClat"/>
-      <sheetName val="Fig B16.5.2-21 COP2"/>
-      <sheetName val="Fig B16.5.2-22 dCOP2"/>
-      <sheetName val="Fig B16.5.2-23 MxCOP2"/>
-      <sheetName val="Fig B16.5.2-24 dMxCOP2"/>
-      <sheetName val="Fig B16.5.2-25 MnCOP2"/>
-      <sheetName val="Fig B16.5.2-26 dMnCOP2"/>
-      <sheetName val="Fig B16.5.2-27 IDB"/>
-      <sheetName val="Fig B16.5.2-28 dIDB"/>
-      <sheetName val="Fig B16.5.2-29 MxIDB"/>
-      <sheetName val="Fig B16.5.2-30 dMxIDB"/>
-      <sheetName val="Fig B16.5.2-31 MnIDB"/>
-      <sheetName val="Fig B16.5.2-32 Humrat"/>
-      <sheetName val="Fig B16.5.2-33 dHumrat"/>
-      <sheetName val="Fig B16.5.2-34 MxHum"/>
-      <sheetName val="Fig B16.5.2-35 dMxHumrat"/>
-      <sheetName val="Fig B16.5.2-36 MnHum"/>
-      <sheetName val="Fig B16.5.2-37 RelHum"/>
-      <sheetName val="Fig B16.5.2-38 dRelHum"/>
-      <sheetName val="Fig B16.5.2-39 MxRelHum"/>
-      <sheetName val="Fig B16.5.2-40 dMxRelHum"/>
-      <sheetName val="Fig B16.5.2-41 MnRelHum"/>
-      <sheetName val="Fig B16.5.2-42 Qf(ODB)"/>
-      <sheetName val="Fig B16.5.2-43 QCf(ODB)"/>
-      <sheetName val="Fig B16.5.2-44 COP2f(ODB)"/>
-      <sheetName val="Fig B16.5.2-45 Humratf(ODB)"/>
-      <sheetName val="Fig B16.5.2-46 HrQ"/>
-      <sheetName val="Fig B16.5.2-47 HrQC"/>
-      <sheetName val="Fig B16.5.2-48 HrCOP2"/>
-      <sheetName val="Fig B16.5.2-49 HrHum"/>
-      <sheetName val="Fig B16.5.2-50 HrEDB,EWB"/>
-      <sheetName val="Fig B16.5.2-51 HrODB"/>
-      <sheetName val="Fig B16.5.2-52 HrOHR"/>
-      <sheetName val="A"/>
-      <sheetName val="Qdata"/>
-      <sheetName val="Rdata"/>
-      <sheetName val="Sdata"/>
-      <sheetName val="Tdata"/>
-      <sheetName val="TRNSYS-TUD"/>
-      <sheetName val="DOE22"/>
-      <sheetName val="DOE21E"/>
-      <sheetName val="EnergyPlus1.0"/>
-      <sheetName val="CodyRun"/>
-      <sheetName val="HOT3000"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1497,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:AX134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1849,7 +1796,7 @@
       <c r="AB56" s="14"/>
       <c r="AC56" s="7"/>
       <c r="AD56" s="8" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="AE56" s="13"/>
       <c r="AF56" s="8"/>
@@ -1870,7 +1817,7 @@
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="16" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="N57" s="18"/>
       <c r="P57" s="15"/>
@@ -1898,14 +1845,14 @@
       <c r="B58" s="15"/>
       <c r="I58" s="15"/>
       <c r="K58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="15"/>
@@ -1914,37 +1861,37 @@
       <c r="S58" s="14"/>
       <c r="AB58" s="22"/>
       <c r="AD58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="1:50">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I59" s="15"/>
       <c r="K59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S59" s="22"/>
       <c r="V59" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB59" s="22"/>
       <c r="AE59" s="22"/>
@@ -1952,118 +1899,118 @@
     </row>
     <row r="60" spans="1:50">
       <c r="A60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="D60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="K60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="L60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M60" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>89</v>
-      </c>
       <c r="N60" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T60" s="15"/>
       <c r="U60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W60" s="15"/>
       <c r="X60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z60" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB60" s="22"/>
       <c r="AD60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AE60" s="22"/>
       <c r="AF60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH60" s="22"/>
     </row>
     <row r="61" spans="1:50">
       <c r="A61" s="16"/>
       <c r="B61" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="K61" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="L61" s="26" t="s">
-        <v>97</v>
-      </c>
       <c r="M61" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O61" s="26"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R61" s="26" t="s">
         <v>59</v>
@@ -2072,7 +2019,7 @@
         <v>60</v>
       </c>
       <c r="T61" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U61" s="26" t="s">
         <v>59</v>
@@ -2081,7 +2028,7 @@
         <v>60</v>
       </c>
       <c r="W61" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X61" s="26" t="s">
         <v>59</v>
@@ -2090,7 +2037,7 @@
         <v>60</v>
       </c>
       <c r="Z61" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA61" s="26" t="s">
         <v>59</v>
@@ -2099,7 +2046,7 @@
         <v>60</v>
       </c>
       <c r="AC61" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD61" s="26" t="s">
         <v>59</v>
@@ -2108,7 +2055,7 @@
         <v>60</v>
       </c>
       <c r="AF61" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG61" s="26" t="s">
         <v>59</v>
@@ -2119,7 +2066,7 @@
     </row>
     <row r="62" spans="1:50" ht="15.75">
       <c r="A62" s="15" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B62" s="30">
         <v>34745.637542485638</v>
@@ -2160,7 +2107,7 @@
       </c>
       <c r="O62" s="39"/>
       <c r="P62" s="15" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="Q62" s="30">
         <v>11899.85968377415</v>
@@ -2227,7 +2174,7 @@
     </row>
     <row r="63" spans="1:50" ht="15.75">
       <c r="A63" s="15" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B63" s="30">
         <v>39290.36408912098</v>
@@ -2264,7 +2211,7 @@
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="15" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="Q63" s="30">
         <v>12540.81881681465</v>
@@ -2313,7 +2260,7 @@
     </row>
     <row r="64" spans="1:50" ht="15.75">
       <c r="A64" s="15" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B64" s="30">
         <v>39079.100197486965</v>
@@ -2350,7 +2297,7 @@
       <c r="N64" s="39"/>
       <c r="O64" s="39"/>
       <c r="P64" s="15" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="Q64" s="30">
         <v>12954.426653473351</v>
@@ -2399,7 +2346,7 @@
     </row>
     <row r="65" spans="1:50" ht="15.75">
       <c r="A65" s="15" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="B65" s="30">
         <v>40143.373589549512</v>
@@ -2436,7 +2383,7 @@
       <c r="N65" s="39"/>
       <c r="O65" s="39"/>
       <c r="P65" s="15" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="Q65" s="30">
         <v>13314.109901095449</v>
@@ -2485,7 +2432,7 @@
     </row>
     <row r="66" spans="1:50" ht="15.75">
       <c r="A66" s="15" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B66" s="30">
         <v>39783.018546382402</v>
@@ -2522,7 +2469,7 @@
       <c r="N66" s="39"/>
       <c r="O66" s="39"/>
       <c r="P66" s="15" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="Q66" s="30">
         <v>13134.17030812735</v>
@@ -2571,7 +2518,7 @@
     </row>
     <row r="67" spans="1:50" ht="15.75">
       <c r="A67" s="15" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B67" s="30">
         <v>31145.113646751332</v>
@@ -2608,7 +2555,7 @@
       <c r="N67" s="39"/>
       <c r="O67" s="39"/>
       <c r="P67" s="15" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="Q67" s="30">
         <v>11899.861867467051</v>
@@ -2657,7 +2604,7 @@
     </row>
     <row r="68" spans="1:50" ht="15.75">
       <c r="A68" s="16" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B68" s="49">
         <v>54704.710962209792</v>
@@ -2694,7 +2641,7 @@
       <c r="N68" s="39"/>
       <c r="O68" s="39"/>
       <c r="P68" s="16" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="Q68" s="49">
         <v>12744.278282333151</v>
@@ -2743,7 +2690,7 @@
     </row>
     <row r="69" spans="1:50" ht="15.75">
       <c r="A69" s="15" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B69" s="30">
         <v>31012.680975386647</v>
@@ -2780,7 +2727,7 @@
       <c r="N69" s="39"/>
       <c r="O69" s="39"/>
       <c r="P69" s="15" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="Q69" s="30">
         <v>11899.85968201855</v>
@@ -2829,7 +2776,7 @@
     </row>
     <row r="70" spans="1:50" ht="15.75">
       <c r="A70" s="15" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B70" s="30"/>
       <c r="C70" s="31"/>
@@ -2846,26 +2793,26 @@
       <c r="N70" s="39"/>
       <c r="O70" s="39"/>
       <c r="P70" s="15" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="Q70" s="30"/>
       <c r="R70" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S70" s="31"/>
       <c r="T70" s="30"/>
       <c r="U70" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V70" s="31"/>
       <c r="W70" s="30"/>
       <c r="X70" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y70" s="31"/>
       <c r="Z70" s="30"/>
       <c r="AA70" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB70" s="48"/>
       <c r="AQ70" s="46"/>
@@ -2879,7 +2826,7 @@
     </row>
     <row r="71" spans="1:50" ht="15.75">
       <c r="A71" s="15" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B71" s="30">
         <v>32735.504626556416</v>
@@ -2916,7 +2863,7 @@
       <c r="N71" s="39"/>
       <c r="O71" s="39"/>
       <c r="P71" s="15" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="Q71" s="30">
         <v>11899.85968377415</v>
@@ -2965,7 +2912,7 @@
     </row>
     <row r="72" spans="1:50" ht="15.75">
       <c r="A72" s="15" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B72" s="30">
         <v>31772.39698072281</v>
@@ -3002,7 +2949,7 @@
       <c r="N72" s="39"/>
       <c r="O72" s="39"/>
       <c r="P72" s="15" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="Q72" s="30">
         <v>11899.85968377405</v>
@@ -3051,7 +2998,7 @@
     </row>
     <row r="73" spans="1:50" ht="15.75">
       <c r="A73" s="16" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="B73" s="49">
         <v>33031.645273495218</v>
@@ -3088,7 +3035,7 @@
       <c r="N73" s="39"/>
       <c r="O73" s="39"/>
       <c r="P73" s="16" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="Q73" s="49">
         <v>11899.85968377415</v>
@@ -3137,7 +3084,7 @@
     </row>
     <row r="74" spans="1:50" ht="15.75">
       <c r="A74" s="15" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B74" s="30">
         <v>23034.608109790275</v>
@@ -3174,7 +3121,7 @@
       <c r="N74" s="39"/>
       <c r="O74" s="39"/>
       <c r="P74" s="15" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="Q74" s="30">
         <v>10398.687242940161</v>
@@ -3223,7 +3170,7 @@
     </row>
     <row r="75" spans="1:50" ht="15.75">
       <c r="A75" s="15" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="B75" s="30">
         <v>17996.111156143779</v>
@@ -3260,7 +3207,7 @@
       <c r="N75" s="39"/>
       <c r="O75" s="39"/>
       <c r="P75" s="15" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="Q75" s="30">
         <v>11409.80343697233</v>
@@ -3309,7 +3256,7 @@
     </row>
     <row r="76" spans="1:50" ht="15.75">
       <c r="A76" s="15" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B76" s="30">
         <v>35732.483805592987</v>
@@ -3346,7 +3293,7 @@
       <c r="N76" s="39"/>
       <c r="O76" s="39"/>
       <c r="P76" s="15" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="Q76" s="30">
         <v>11100.525257695599</v>
@@ -3395,7 +3342,7 @@
     </row>
     <row r="77" spans="1:50" ht="15.75">
       <c r="A77" s="15" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B77" s="30">
         <v>25017.177618583835</v>
@@ -3432,7 +3379,7 @@
       <c r="N77" s="39"/>
       <c r="O77" s="39"/>
       <c r="P77" s="15" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="Q77" s="30">
         <v>10762.38715226553</v>
@@ -3481,7 +3428,7 @@
     </row>
     <row r="78" spans="1:50" ht="15.75">
       <c r="A78" s="15" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B78" s="30">
         <v>24077.724718093501</v>
@@ -3518,7 +3465,7 @@
       <c r="N78" s="39"/>
       <c r="O78" s="39"/>
       <c r="P78" s="15" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="Q78" s="30">
         <v>9569.5705257615919</v>
@@ -3567,7 +3514,7 @@
     </row>
     <row r="79" spans="1:50" ht="15.75">
       <c r="A79" s="15" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B79" s="30">
         <v>20701.560304430714</v>
@@ -3604,7 +3551,7 @@
       <c r="N79" s="39"/>
       <c r="O79" s="39"/>
       <c r="P79" s="15" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="Q79" s="30">
         <v>8171.0478515555824</v>
@@ -3653,7 +3600,7 @@
     </row>
     <row r="80" spans="1:50" ht="15.75">
       <c r="A80" s="15" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="B80" s="30">
         <v>17741.943188338209</v>
@@ -3690,7 +3637,7 @@
       <c r="N80" s="39"/>
       <c r="O80" s="39"/>
       <c r="P80" s="15" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="Q80" s="30">
         <v>8677.4024795092264</v>
@@ -3739,7 +3686,7 @@
     </row>
     <row r="81" spans="1:50" ht="15.75">
       <c r="A81" s="15" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B81" s="30">
         <v>19061.112503659155</v>
@@ -3776,7 +3723,7 @@
       <c r="N81" s="39"/>
       <c r="O81" s="39"/>
       <c r="P81" s="16" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="Q81" s="49">
         <v>7762.7560256616516</v>
@@ -3825,7 +3772,7 @@
     </row>
     <row r="82" spans="1:50" ht="15.75">
       <c r="A82" s="16" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B82" s="49">
         <v>16635.725867238158</v>
@@ -3868,7 +3815,7 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -3882,7 +3829,7 @@
       <c r="R84" s="8"/>
       <c r="S84" s="13"/>
       <c r="T84" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="U84" s="8"/>
       <c r="V84" s="13"/>
@@ -3949,35 +3896,35 @@
     <row r="86" spans="1:50">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H86" s="60"/>
       <c r="K86" s="9"/>
       <c r="L86" s="61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="S86" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="W86" s="15"/>
       <c r="X86" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AC86" s="15"/>
       <c r="AD86" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AI86" s="15"/>
       <c r="AJ86" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AN86" s="62"/>
       <c r="AO86" s="60"/>
@@ -3987,114 +3934,114 @@
         <v>60</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H87" s="63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="T87" s="15"/>
       <c r="U87" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="W87" s="15"/>
       <c r="X87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Z87" s="15"/>
       <c r="AA87" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AC87" s="15"/>
       <c r="AD87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AF87" s="15"/>
       <c r="AG87" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AI87" s="15"/>
       <c r="AJ87" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AL87" s="15"/>
       <c r="AM87" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AN87" s="62"/>
       <c r="AO87" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:50">
       <c r="A88" s="16"/>
       <c r="B88" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H88" s="64"/>
       <c r="I88" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L88" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P88" s="16"/>
       <c r="Q88" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R88" s="26" t="s">
         <v>59</v>
@@ -4103,7 +4050,7 @@
         <v>60</v>
       </c>
       <c r="T88" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U88" s="26" t="s">
         <v>59</v>
@@ -4112,7 +4059,7 @@
         <v>60</v>
       </c>
       <c r="W88" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X88" s="26" t="s">
         <v>59</v>
@@ -4121,7 +4068,7 @@
         <v>60</v>
       </c>
       <c r="Z88" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA88" s="26" t="s">
         <v>59</v>
@@ -4130,7 +4077,7 @@
         <v>60</v>
       </c>
       <c r="AC88" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD88" s="26" t="s">
         <v>59</v>
@@ -4139,7 +4086,7 @@
         <v>60</v>
       </c>
       <c r="AF88" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG88" s="26" t="s">
         <v>59</v>
@@ -4148,7 +4095,7 @@
         <v>60</v>
       </c>
       <c r="AI88" s="25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AJ88" s="26" t="s">
         <v>59</v>
@@ -4157,7 +4104,7 @@
         <v>60</v>
       </c>
       <c r="AL88" s="25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AM88" s="26" t="s">
         <v>59</v>
@@ -4169,7 +4116,7 @@
     </row>
     <row r="89" spans="1:50" ht="15.75">
       <c r="A89" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B89" s="30">
         <v>2118.6889438038902</v>
@@ -4201,7 +4148,7 @@
         <v>1.1192238384168799E-2</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="Q89" s="33">
         <v>3.925207167876799</v>
@@ -4276,7 +4223,7 @@
         <v>6</v>
       </c>
       <c r="AO89" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ89" s="46"/>
       <c r="AR89" s="46"/>
@@ -4289,7 +4236,7 @@
     </row>
     <row r="90" spans="1:50" ht="15.75">
       <c r="A90" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B90" s="30">
         <v>2131.2588170294398</v>
@@ -4321,7 +4268,7 @@
         <v>1.12864861922515E-2</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="Q90" s="33">
         <v>4.1729080768923774</v>
@@ -4396,7 +4343,7 @@
         <v>8</v>
       </c>
       <c r="AO90" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ90" s="46"/>
       <c r="AR90" s="46"/>
@@ -4409,7 +4356,7 @@
     </row>
     <row r="91" spans="1:50" ht="15.75">
       <c r="A91" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B91" s="30">
         <v>2112.62246514341</v>
@@ -4441,7 +4388,7 @@
         <v>1.11896031761954E-2</v>
       </c>
       <c r="P91" s="15" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="Q91" s="33">
         <v>3.9395050865418062</v>
@@ -4516,7 +4463,7 @@
         <v>6</v>
       </c>
       <c r="AO91" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AQ91" s="46"/>
       <c r="AR91" s="46"/>
@@ -4529,7 +4476,7 @@
     </row>
     <row r="92" spans="1:50" ht="15.75">
       <c r="A92" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B92" s="30">
         <v>2074.7395932077802</v>
@@ -4561,7 +4508,7 @@
         <v>1.1050517767761E-2</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="Q92" s="33">
         <v>4.0714684874766807</v>
@@ -4636,7 +4583,7 @@
         <v>6</v>
       </c>
       <c r="AO92" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AQ92" s="46"/>
       <c r="AR92" s="46"/>
@@ -4649,7 +4596,7 @@
     </row>
     <row r="93" spans="1:50" ht="15.75">
       <c r="A93" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B93" s="30">
         <v>1997.2204543247699</v>
@@ -4681,7 +4628,7 @@
         <v>1.04787885325494E-2</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="Q93" s="33">
         <v>3.9865836498914717</v>
@@ -4756,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="AO93" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AQ93" s="46"/>
       <c r="AR93" s="46"/>
@@ -4769,7 +4716,7 @@
     </row>
     <row r="94" spans="1:50" ht="15.75">
       <c r="A94" s="15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B94" s="30">
         <v>2141.5966061129702</v>
@@ -4801,7 +4748,7 @@
         <v>1.06374132060997E-2</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="Q94" s="33">
         <v>4.555230809047135</v>
@@ -4876,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="AO94" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ94" s="46"/>
       <c r="AR94" s="46"/>
@@ -4889,7 +4836,7 @@
     </row>
     <row r="95" spans="1:50" ht="15.75">
       <c r="A95" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B95" s="30">
         <v>2869.5781464197698</v>
@@ -4921,7 +4868,7 @@
         <v>1.22646283801164E-2</v>
       </c>
       <c r="P95" s="16" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="Q95" s="52">
         <v>4.4553511245654542</v>
@@ -4996,7 +4943,7 @@
         <v>6</v>
       </c>
       <c r="AO95" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AQ95" s="46"/>
       <c r="AR95" s="46"/>
@@ -5009,7 +4956,7 @@
     </row>
     <row r="96" spans="1:50" ht="15.75">
       <c r="A96" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B96" s="30">
         <v>3498.53943915426</v>
@@ -5041,7 +4988,7 @@
         <v>1.1777248116637599E-2</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="Q96" s="33">
         <v>4.0714545629501995</v>
@@ -5116,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AO96" s="63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AQ96" s="46"/>
       <c r="AR96" s="46"/>
@@ -5129,7 +5076,7 @@
     </row>
     <row r="97" spans="1:50" ht="15.75">
       <c r="A97" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B97" s="30">
         <v>4681.7761561718098</v>
@@ -5161,50 +5108,50 @@
         <v>1.15717539210535E-2</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="Q97" s="33"/>
       <c r="R97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S97" s="31"/>
       <c r="T97" s="33"/>
       <c r="U97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V97" s="31"/>
       <c r="W97" s="71"/>
       <c r="X97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y97" s="31"/>
       <c r="Z97" s="71"/>
       <c r="AA97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB97" s="31"/>
       <c r="AC97" s="66"/>
       <c r="AD97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE97" s="31"/>
       <c r="AF97" s="66"/>
       <c r="AG97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH97" s="31"/>
       <c r="AI97" s="71"/>
       <c r="AJ97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AK97" s="31"/>
       <c r="AL97" s="71"/>
       <c r="AM97" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AN97" s="48"/>
       <c r="AO97" s="63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AQ97" s="46"/>
       <c r="AR97" s="46"/>
@@ -5217,7 +5164,7 @@
     </row>
     <row r="98" spans="1:50" ht="15.75">
       <c r="A98" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B98" s="30">
         <v>4947.6011125965797</v>
@@ -5249,7 +5196,7 @@
         <v>1.23930566818862E-2</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="Q98" s="33">
         <v>3.8213622217605439</v>
@@ -5324,7 +5271,7 @@
         <v>6</v>
       </c>
       <c r="AO98" s="63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AQ98" s="46"/>
       <c r="AR98" s="46"/>
@@ -5337,7 +5284,7 @@
     </row>
     <row r="99" spans="1:50" ht="15.75">
       <c r="A99" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B99" s="30">
         <v>5406.6429454445797</v>
@@ -5369,7 +5316,7 @@
         <v>1.39552571996681E-2</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="Q99" s="33">
         <v>3.7926802045028154</v>
@@ -5444,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AO99" s="63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AQ99" s="46"/>
       <c r="AR99" s="46"/>
@@ -5457,7 +5404,7 @@
     </row>
     <row r="100" spans="1:50" ht="15.75">
       <c r="A100" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B100" s="30">
         <v>5632.3849955416399</v>
@@ -5489,7 +5436,7 @@
         <v>1.37523542093869E-2</v>
       </c>
       <c r="P100" s="16" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="Q100" s="52">
         <v>3.8018289094579329</v>
@@ -5564,7 +5511,7 @@
         <v>6</v>
       </c>
       <c r="AO100" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AQ100" s="46"/>
       <c r="AR100" s="46"/>
@@ -5577,7 +5524,7 @@
     </row>
     <row r="101" spans="1:50" ht="15.75">
       <c r="A101" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B101" s="30">
         <v>7132.8035292218901</v>
@@ -5609,7 +5556,7 @@
         <v>1.19775977361672E-2</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="Q101" s="33">
         <v>4.1979631776990924</v>
@@ -5684,7 +5631,7 @@
         <v>4</v>
       </c>
       <c r="AO101" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AQ101" s="46"/>
       <c r="AR101" s="46"/>
@@ -5697,7 +5644,7 @@
     </row>
     <row r="102" spans="1:50" ht="15.75">
       <c r="A102" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B102" s="30">
         <v>6983.3064262051403</v>
@@ -5729,7 +5676,7 @@
         <v>1.15165366449661E-2</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="Q102" s="33">
         <v>4.6846519310443204</v>
@@ -5804,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="AO102" s="63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AQ102" s="46"/>
       <c r="AR102" s="46"/>
@@ -5849,7 +5796,7 @@
         <v>1.20746990284587E-2</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="Q103" s="33">
         <v>3.9376595698056289</v>
@@ -5924,7 +5871,7 @@
         <v>24</v>
       </c>
       <c r="AO103" s="63" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AQ103" s="46"/>
       <c r="AR103" s="46"/>
@@ -5937,7 +5884,7 @@
     </row>
     <row r="104" spans="1:50" ht="15.75">
       <c r="A104" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B104" s="30">
         <v>8732.6962593781409</v>
@@ -5969,7 +5916,7 @@
         <v>1.34786607926151E-2</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="Q104" s="33">
         <v>4.0423817269763118</v>
@@ -6044,7 +5991,7 @@
         <v>4</v>
       </c>
       <c r="AO104" s="63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AQ104" s="46"/>
       <c r="AR104" s="46"/>
@@ -6057,7 +6004,7 @@
     </row>
     <row r="105" spans="1:50" ht="15.75">
       <c r="A105" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B105" s="30">
         <v>5718.3243162683102</v>
@@ -6089,7 +6036,7 @@
         <v>1.44852092196681E-2</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="Q105" s="33">
         <v>4.7040196116884543</v>
@@ -6164,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="AO105" s="63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AQ105" s="46"/>
       <c r="AR105" s="46"/>
@@ -6177,7 +6124,7 @@
     </row>
     <row r="106" spans="1:50" ht="15.75">
       <c r="A106" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B106" s="30">
         <v>5880.5827929739098</v>
@@ -6209,7 +6156,7 @@
         <v>1.5264654778820001E-2</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="Q106" s="33">
         <v>3.9250063327252209</v>
@@ -6284,7 +6231,7 @@
         <v>18</v>
       </c>
       <c r="AO106" s="63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AQ106" s="46"/>
       <c r="AR106" s="46"/>
@@ -6297,7 +6244,7 @@
     </row>
     <row r="107" spans="1:50" ht="15.75">
       <c r="A107" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B107" s="30">
         <v>5555.1112478486102</v>
@@ -6329,7 +6276,7 @@
         <v>1.4907651232985399E-2</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="Q107" s="33">
         <v>3.6958842184098093</v>
@@ -6404,7 +6351,7 @@
         <v>16</v>
       </c>
       <c r="AO107" s="63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ107" s="46"/>
       <c r="AR107" s="46"/>
@@ -6417,7 +6364,7 @@
     </row>
     <row r="108" spans="1:50" ht="15.75">
       <c r="A108" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B108" s="30">
         <v>5259.2136553330702</v>
@@ -6449,7 +6396,7 @@
         <v>1.5924809238629802E-2</v>
       </c>
       <c r="P108" s="16" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="Q108" s="52">
         <v>4.1660966084146009</v>
@@ -6524,7 +6471,7 @@
         <v>17</v>
       </c>
       <c r="AO108" s="65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AQ108" s="46"/>
       <c r="AR108" s="46"/>
@@ -6537,7 +6484,7 @@
     </row>
     <row r="109" spans="1:50" ht="15.75">
       <c r="A109" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B109" s="30">
         <v>4325.7082941734998</v>
@@ -6569,12 +6516,12 @@
         <v>1.6791829982282399E-2</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:50" ht="15.75">
       <c r="A110" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B110" s="30">
         <v>4278.8800992413499</v>
@@ -6608,7 +6555,7 @@
     </row>
     <row r="111" spans="1:50" ht="15.75">
       <c r="A111" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B111" s="30">
         <v>4172.5901079710702</v>
@@ -6642,7 +6589,7 @@
     </row>
     <row r="112" spans="1:50" ht="15.75">
       <c r="A112" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B112" s="49">
         <v>4151.9737134714896</v>
@@ -6677,7 +6624,7 @@
     <row r="115" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6706,17 +6653,17 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="15"/>
-      <c r="B117" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="80"/>
-      <c r="D117" s="80"/>
-      <c r="E117" s="81"/>
+      <c r="B117" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="88"/>
+      <c r="D117" s="88"/>
+      <c r="E117" s="89"/>
       <c r="F117" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J117" s="60"/>
       <c r="K117" s="7"/>
@@ -6724,79 +6671,79 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B118" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="F118" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F118" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I118" s="24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J118" s="63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="16"/>
       <c r="B119" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H119" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I119" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J119" s="64"/>
       <c r="K119" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L119" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.75">
-      <c r="A120" s="82" t="s">
-        <v>173</v>
+      <c r="A120" s="79" t="s">
+        <v>166</v>
       </c>
       <c r="B120" s="30">
         <v>4028.8241817073631</v>
@@ -6826,50 +6773,50 @@
       <c r="K120" s="36">
         <v>16.814583333333328</v>
       </c>
-      <c r="L120" s="83">
+      <c r="L120" s="80">
         <v>24.981778291731384</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75">
-      <c r="A121" s="84" t="s">
-        <v>174</v>
+      <c r="A121" s="81" t="s">
+        <v>167</v>
       </c>
       <c r="B121" s="49">
         <v>5228.7799778248173</v>
       </c>
-      <c r="C121" s="85">
+      <c r="C121" s="82">
         <v>4663.2403216467364</v>
       </c>
       <c r="D121" s="51"/>
-      <c r="E121" s="86">
+      <c r="E121" s="83">
         <v>565.53965617808058</v>
       </c>
-      <c r="F121" s="85">
+      <c r="F121" s="82">
         <v>13733.074947534429</v>
       </c>
-      <c r="G121" s="85">
+      <c r="G121" s="82">
         <v>9952.5712747156595</v>
       </c>
-      <c r="H121" s="86">
+      <c r="H121" s="83">
         <v>3780.5036728187692</v>
       </c>
-      <c r="I121" s="87">
+      <c r="I121" s="84">
         <v>1.1459433329871279E-2</v>
       </c>
       <c r="J121" s="75">
         <v>2.9431302351671818</v>
       </c>
-      <c r="K121" s="88">
+      <c r="K121" s="85">
         <v>29.516666666666666</v>
       </c>
-      <c r="L121" s="89">
+      <c r="L121" s="86">
         <v>24.982801663180325</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="7"/>
       <c r="B124" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -6898,17 +6845,17 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="15"/>
-      <c r="B126" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="80"/>
-      <c r="D126" s="80"/>
-      <c r="E126" s="81"/>
+      <c r="B126" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="88"/>
+      <c r="D126" s="88"/>
+      <c r="E126" s="89"/>
       <c r="F126" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J126" s="60"/>
       <c r="K126" s="7"/>
@@ -6916,79 +6863,79 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B127" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="F127" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F127" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I127" s="24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J127" s="63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="16"/>
       <c r="B128" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H128" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J128" s="64"/>
       <c r="K128" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L128" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.75">
-      <c r="A129" s="82" t="s">
-        <v>173</v>
+      <c r="A129" s="79" t="s">
+        <v>166</v>
       </c>
       <c r="B129" s="30">
         <v>3101.437208339988</v>
@@ -7018,49 +6965,49 @@
       <c r="K129" s="36">
         <v>16.814583333333328</v>
       </c>
-      <c r="L129" s="83">
+      <c r="L129" s="80">
         <v>25.000000734615227</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.75">
-      <c r="A130" s="84" t="s">
-        <v>174</v>
+      <c r="A130" s="81" t="s">
+        <v>167</v>
       </c>
       <c r="B130" s="49">
         <v>4028.6999198229551</v>
       </c>
-      <c r="C130" s="85">
+      <c r="C130" s="82">
         <v>3578.6201505120316</v>
       </c>
       <c r="D130" s="51"/>
-      <c r="E130" s="86">
+      <c r="E130" s="83">
         <v>450.07976931092344</v>
       </c>
-      <c r="F130" s="85">
+      <c r="F130" s="82">
         <v>9835.1361495596175</v>
       </c>
-      <c r="G130" s="85">
+      <c r="G130" s="82">
         <v>9835.1361495596175</v>
       </c>
-      <c r="H130" s="86">
+      <c r="H130" s="83">
         <v>6.6831018085832858E-13</v>
       </c>
-      <c r="I130" s="87">
+      <c r="I130" s="84">
         <v>6.7531335321627676E-3</v>
       </c>
       <c r="J130" s="75">
         <v>2.7795311738883801</v>
       </c>
-      <c r="K130" s="88">
+      <c r="K130" s="85">
         <v>29.516666666666666</v>
       </c>
-      <c r="L130" s="89">
+      <c r="L130" s="86">
         <v>25.000000805824822</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="B134" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/input/EnergyPlus/1.1.0.020/Std140_CE_b_Output.xlsx
+++ b/input/EnergyPlus/1.1.0.020/Std140_CE_b_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\EnergyPlus\1.1.0.020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4E021-162F-486F-AED9-2C3540D2657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08964A4C-15A7-43B1-ABDC-D66341D74A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{4123B39A-7435-41A2-B95B-E63991D27550}"/>
   </bookViews>
@@ -596,12 +596,6 @@
     <t>CE500</t>
   </si>
   <si>
-    <t>CE500 May-SCEp</t>
-  </si>
-  <si>
-    <t>CE510 May-SCEp</t>
-  </si>
-  <si>
     <t>CE520</t>
   </si>
   <si>
@@ -639,6 +633,12 @@
   </si>
   <si>
     <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t>CE500 May-Sep</t>
+  </si>
+  <si>
+    <t>CE510 May-Sep</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:AX134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1796,7 +1796,7 @@
       <c r="AB56" s="14"/>
       <c r="AC56" s="7"/>
       <c r="AD56" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE56" s="13"/>
       <c r="AF56" s="8"/>
@@ -1817,7 +1817,7 @@
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N57" s="18"/>
       <c r="P57" s="15"/>
@@ -3121,7 +3121,7 @@
       <c r="N74" s="39"/>
       <c r="O74" s="39"/>
       <c r="P74" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q74" s="30">
         <v>10398.687242940161</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="75" spans="1:50" ht="15.75">
       <c r="A75" s="15" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B75" s="30">
         <v>17996.111156143779</v>
@@ -3207,7 +3207,7 @@
       <c r="N75" s="39"/>
       <c r="O75" s="39"/>
       <c r="P75" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q75" s="30">
         <v>11409.80343697233</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="76" spans="1:50" ht="15.75">
       <c r="A76" s="15" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B76" s="30">
         <v>35732.483805592987</v>
@@ -3293,7 +3293,7 @@
       <c r="N76" s="39"/>
       <c r="O76" s="39"/>
       <c r="P76" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q76" s="30">
         <v>11100.525257695599</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="77" spans="1:50" ht="15.75">
       <c r="A77" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B77" s="30">
         <v>25017.177618583835</v>
@@ -3379,7 +3379,7 @@
       <c r="N77" s="39"/>
       <c r="O77" s="39"/>
       <c r="P77" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q77" s="30">
         <v>10762.38715226553</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="78" spans="1:50" ht="15.75">
       <c r="A78" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B78" s="30">
         <v>24077.724718093501</v>
@@ -3465,7 +3465,7 @@
       <c r="N78" s="39"/>
       <c r="O78" s="39"/>
       <c r="P78" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q78" s="30">
         <v>9569.5705257615919</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="79" spans="1:50" ht="15.75">
       <c r="A79" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B79" s="30">
         <v>20701.560304430714</v>
@@ -3551,7 +3551,7 @@
       <c r="N79" s="39"/>
       <c r="O79" s="39"/>
       <c r="P79" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q79" s="30">
         <v>8171.0478515555824</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="80" spans="1:50" ht="15.75">
       <c r="A80" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B80" s="30">
         <v>17741.943188338209</v>
@@ -3637,7 +3637,7 @@
       <c r="N80" s="39"/>
       <c r="O80" s="39"/>
       <c r="P80" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q80" s="30">
         <v>8677.4024795092264</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="81" spans="1:50" ht="15.75">
       <c r="A81" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B81" s="30">
         <v>19061.112503659155</v>
@@ -3723,7 +3723,7 @@
       <c r="N81" s="39"/>
       <c r="O81" s="39"/>
       <c r="P81" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q81" s="49">
         <v>7762.7560256616516</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="82" spans="1:50" ht="15.75">
       <c r="A82" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B82" s="49">
         <v>16635.725867238158</v>
@@ -3815,7 +3815,7 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -5556,7 +5556,7 @@
         <v>1.19775977361672E-2</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q101" s="33">
         <v>4.1979631776990924</v>
@@ -5676,7 +5676,7 @@
         <v>1.15165366449661E-2</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q102" s="33">
         <v>4.6846519310443204</v>
@@ -5796,7 +5796,7 @@
         <v>1.20746990284587E-2</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q103" s="33">
         <v>3.9376595698056289</v>
@@ -5916,7 +5916,7 @@
         <v>1.34786607926151E-2</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q104" s="33">
         <v>4.0423817269763118</v>
@@ -6036,7 +6036,7 @@
         <v>1.44852092196681E-2</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q105" s="33">
         <v>4.7040196116884543</v>
@@ -6156,7 +6156,7 @@
         <v>1.5264654778820001E-2</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q106" s="33">
         <v>3.9250063327252209</v>
@@ -6276,7 +6276,7 @@
         <v>1.4907651232985399E-2</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q107" s="33">
         <v>3.6958842184098093</v>
@@ -6396,7 +6396,7 @@
         <v>1.5924809238629802E-2</v>
       </c>
       <c r="P108" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q108" s="52">
         <v>4.1660966084146009</v>
@@ -6624,7 +6624,7 @@
     <row r="115" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6816,7 +6816,7 @@
     <row r="124" spans="1:12">
       <c r="A124" s="7"/>
       <c r="B124" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
